--- a/report.xlsx
+++ b/report.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R4294bdbcf92141e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="Rca90d08137e54e0d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -13,28 +13,40 @@
     <x:t>Список компонент</x:t>
   </x:si>
   <x:si>
-    <x:t>czxc</x:t>
+    <x:t>comp1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
   </x:si>
   <x:si>
     <x:t>hdd</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
+    <x:t>1</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>компуктер</x:t>
+    <x:t>prod2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newComp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t>ssd</x:t>
   </x:si>
   <x:si>
-    <x:t>3</x:t>
+    <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>3</x:t>
+    <x:t>5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -138,26 +150,42 @@
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="C4" s="0" t="s">
+      <x:c r="B4" s="1" t="s">
         <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>5</x:v>
+      <x:c r="C5" s="0" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="B6" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
+      <x:c r="A6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="C7" s="0" t="s">
+      <x:c r="B7" s="1" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="B8" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="C9" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R4294bdbcf92141e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R86e9d127f5264d3e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,31 +10,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Список компонент</x:t>
-  </x:si>
-  <x:si>
-    <x:t>czxc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>компуктер</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
+    <x:t>Список складов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stock1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>component1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>component2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stock2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>component1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>component3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>component4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stock3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -138,26 +162,60 @@
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="C4" s="0" t="s">
+      <x:c r="B4" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>5</x:v>
+      <x:c r="C5" s="0" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="B6" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
+      <x:c r="A6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="C7" s="0" t="s">
+      <x:c r="B7" s="1" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="B8" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="B9" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="C10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="C12" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
